--- a/Data/RSPB_data_filtered/RSPB_Data_2000-01_NOV00.xlsx
+++ b/Data/RSPB_data_filtered/RSPB_Data_2000-01_NOV00.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\injg1\Desktop\RSPB Data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS_CURRENT\SNH_Moray_Firth\SNH_Moray_Firth\Data\RSPB_data_filtered\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6B5265-59AE-49BB-B326-F840395CD4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10890" activeTab="2"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outer_Dornoch_Firth" sheetId="6" r:id="rId1"/>
     <sheet name="Inverness_Beauly_Firth" sheetId="10" r:id="rId2"/>
     <sheet name="Nairn_Culbin_Bars" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="83">
   <si>
     <t>Inver</t>
   </si>
@@ -174,12 +185,6 @@
   </si>
   <si>
     <t>Observer</t>
-  </si>
-  <si>
-    <t>N 2-3</t>
-  </si>
-  <si>
-    <t>1-2</t>
   </si>
   <si>
     <t>David Butterfield</t>
@@ -281,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -402,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -435,9 +440,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -796,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -809,10 +811,9 @@
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1">
+    <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>44</v>
       </c>
@@ -820,55 +821,52 @@
         <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
@@ -920,11 +918,8 @@
       <c r="Q2" s="15">
         <v>36832</v>
       </c>
-      <c r="R2" s="15">
-        <v>36839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -976,291 +971,273 @@
       <c r="Q3" s="10">
         <v>0.63194444444444442</v>
       </c>
-      <c r="R3" s="10">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1</v>
-      </c>
-      <c r="H5" s="17">
-        <v>1</v>
-      </c>
-      <c r="I5" s="17">
-        <v>1</v>
-      </c>
-      <c r="J5" s="17">
-        <v>1</v>
-      </c>
-      <c r="K5" s="17">
-        <v>1</v>
-      </c>
-      <c r="L5" s="17">
-        <v>1</v>
-      </c>
-      <c r="M5" s="17">
-        <v>1</v>
-      </c>
-      <c r="N5" s="17">
-        <v>1</v>
-      </c>
-      <c r="O5" s="17">
-        <v>1</v>
-      </c>
-      <c r="P5" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>1</v>
-      </c>
-      <c r="R5" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16">
+        <v>1</v>
+      </c>
+      <c r="K5" s="16">
+        <v>1</v>
+      </c>
+      <c r="L5" s="16">
+        <v>1</v>
+      </c>
+      <c r="M5" s="16">
+        <v>1</v>
+      </c>
+      <c r="N5" s="16">
+        <v>1</v>
+      </c>
+      <c r="O5" s="16">
+        <v>1</v>
+      </c>
+      <c r="P5" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1</v>
-      </c>
-      <c r="H6" s="17">
-        <v>1</v>
-      </c>
-      <c r="I6" s="17">
-        <v>1</v>
-      </c>
-      <c r="J6" s="17">
-        <v>1</v>
-      </c>
-      <c r="K6" s="17">
-        <v>1</v>
-      </c>
-      <c r="L6" s="17">
-        <v>1</v>
-      </c>
-      <c r="M6" s="17">
-        <v>1</v>
-      </c>
-      <c r="N6" s="17">
-        <v>1</v>
-      </c>
-      <c r="O6" s="17">
-        <v>1</v>
-      </c>
-      <c r="P6" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>1</v>
-      </c>
-      <c r="R6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1">
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1</v>
+      </c>
+      <c r="M6" s="16">
+        <v>1</v>
+      </c>
+      <c r="N6" s="16">
+        <v>1</v>
+      </c>
+      <c r="O6" s="16">
+        <v>1</v>
+      </c>
+      <c r="P6" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="17">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1</v>
-      </c>
-      <c r="I7" s="17">
-        <v>1</v>
-      </c>
-      <c r="J7" s="17">
-        <v>1</v>
-      </c>
-      <c r="K7" s="17">
-        <v>1</v>
-      </c>
-      <c r="L7" s="17">
-        <v>1</v>
-      </c>
-      <c r="M7" s="17">
-        <v>1</v>
-      </c>
-      <c r="N7" s="17">
-        <v>1</v>
-      </c>
-      <c r="O7" s="17">
-        <v>1</v>
-      </c>
-      <c r="P7" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>1</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1">
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1</v>
+      </c>
+      <c r="J7" s="16">
+        <v>1</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1</v>
+      </c>
+      <c r="L7" s="16">
+        <v>1</v>
+      </c>
+      <c r="M7" s="16">
+        <v>1</v>
+      </c>
+      <c r="N7" s="16">
+        <v>1</v>
+      </c>
+      <c r="O7" s="16">
+        <v>1</v>
+      </c>
+      <c r="P7" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1292,11 +1269,8 @@
       <c r="Q9" s="1">
         <v>3</v>
       </c>
-      <c r="R9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1326,9 +1300,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1366,9 +1339,8 @@
         <v>1</v>
       </c>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1388,9 +1360,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1410,9 +1381,8 @@
       <c r="O13" s="1"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1432,9 +1402,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1454,9 +1423,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1484,9 +1452,8 @@
       <c r="Q16" s="1">
         <v>2</v>
       </c>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1506,9 +1473,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1546,11 +1512,8 @@
         <v>1</v>
       </c>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1570,9 +1533,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1592,9 +1554,8 @@
       <c r="O20" s="1"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1614,9 +1575,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1636,9 +1596,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1664,9 +1623,8 @@
       <c r="Q23" s="1">
         <v>6</v>
       </c>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1686,9 +1644,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1710,9 +1667,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1734,9 +1690,8 @@
       <c r="O26" s="1"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1756,9 +1711,8 @@
       <c r="O27" s="1"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1780,9 +1734,8 @@
       <c r="O28" s="1"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -1802,11 +1755,8 @@
       <c r="O29" s="1"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1834,11 +1784,8 @@
       <c r="O30" s="1"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1868,9 +1815,8 @@
       <c r="O31" s="1"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -1892,9 +1838,8 @@
       <c r="O32" s="1"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -1920,9 +1865,8 @@
       <c r="O33" s="1"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1942,9 +1886,8 @@
       <c r="O34" s="1"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -1964,9 +1907,8 @@
       <c r="O35" s="1"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -1986,9 +1928,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -2008,9 +1949,8 @@
       <c r="O37" s="1"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2052,11 +1992,8 @@
       <c r="Q38" s="1">
         <v>3</v>
       </c>
-      <c r="R38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -2102,9 +2039,8 @@
       <c r="Q39" s="1">
         <v>41</v>
       </c>
-      <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -2144,9 +2080,8 @@
       <c r="O40" s="1"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -2178,9 +2113,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -2198,9 +2132,8 @@
       <c r="O42" s="1"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -2218,9 +2151,8 @@
       <c r="O43" s="1"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="2"/>
-    </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -2238,9 +2170,8 @@
       <c r="O44" s="1"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -2258,9 +2189,8 @@
       <c r="O45" s="1"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -2278,9 +2208,8 @@
       <c r="O46" s="1"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="1"/>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" ht="15" customHeight="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.59" right="0.39" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2289,7 +2218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2309,7 +2238,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>33</v>
@@ -2321,34 +2250,34 @@
         <v>35</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>37</v>
@@ -2356,8 +2285,8 @@
       <c r="Q1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="18" t="s">
-        <v>78</v>
+      <c r="R1" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
@@ -2477,110 +2406,110 @@
         <v>46</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>4</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>4</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>4</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>4</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>4</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>4</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>4</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="16">
         <v>4</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>4</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="16">
         <v>4</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="16">
         <v>4</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="16">
         <v>4</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="16">
         <v>4</v>
       </c>
     </row>
@@ -2588,55 +2517,55 @@
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1</v>
-      </c>
-      <c r="H6" s="17">
-        <v>1</v>
-      </c>
-      <c r="I6" s="17">
-        <v>1</v>
-      </c>
-      <c r="J6" s="17">
-        <v>1</v>
-      </c>
-      <c r="K6" s="17">
-        <v>1</v>
-      </c>
-      <c r="L6" s="17">
-        <v>1</v>
-      </c>
-      <c r="M6" s="17">
-        <v>1</v>
-      </c>
-      <c r="N6" s="17">
-        <v>1</v>
-      </c>
-      <c r="O6" s="17">
-        <v>1</v>
-      </c>
-      <c r="P6" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>1</v>
-      </c>
-      <c r="R6" s="17">
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1</v>
+      </c>
+      <c r="M6" s="16">
+        <v>1</v>
+      </c>
+      <c r="N6" s="16">
+        <v>1</v>
+      </c>
+      <c r="O6" s="16">
+        <v>1</v>
+      </c>
+      <c r="P6" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>1</v>
+      </c>
+      <c r="R6" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2644,55 +2573,55 @@
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="17">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1</v>
-      </c>
-      <c r="I7" s="17">
-        <v>1</v>
-      </c>
-      <c r="J7" s="17">
-        <v>1</v>
-      </c>
-      <c r="K7" s="17">
-        <v>1</v>
-      </c>
-      <c r="L7" s="17">
-        <v>1</v>
-      </c>
-      <c r="M7" s="17">
-        <v>1</v>
-      </c>
-      <c r="N7" s="17">
-        <v>1</v>
-      </c>
-      <c r="O7" s="17">
-        <v>1</v>
-      </c>
-      <c r="P7" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>1</v>
-      </c>
-      <c r="R7" s="17">
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1</v>
+      </c>
+      <c r="J7" s="16">
+        <v>1</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1</v>
+      </c>
+      <c r="L7" s="16">
+        <v>1</v>
+      </c>
+      <c r="M7" s="16">
+        <v>1</v>
+      </c>
+      <c r="N7" s="16">
+        <v>1</v>
+      </c>
+      <c r="O7" s="16">
+        <v>1</v>
+      </c>
+      <c r="P7" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>1</v>
+      </c>
+      <c r="R7" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2701,55 +2630,55 @@
         <v>50</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
@@ -3717,10 +3646,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -3736,19 +3665,19 @@
         <v>44</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
@@ -3808,19 +3737,19 @@
         <v>46</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
@@ -3831,19 +3760,19 @@
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>8</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>8</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>8</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>8</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>8</v>
       </c>
       <c r="G5" s="1"/>
@@ -3855,19 +3784,19 @@
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
         <v>1</v>
       </c>
       <c r="G6" s="1"/>
@@ -3879,19 +3808,19 @@
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="17">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
         <v>1</v>
       </c>
       <c r="G7" s="1"/>
@@ -3904,19 +3833,19 @@
         <v>50</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="2"/>
